--- a/Dataset/gabungan_laporan_iklim_final2.xlsx
+++ b/Dataset/gabungan_laporan_iklim_final2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo E15\Documents\Data Science\Jakarta-Weather-Prediction-2025\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B480DA7-4D75-4FC5-945C-4AE708F8C1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B5AEBD-4668-4C81-AF51-02AE231E62BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2936,17 +2936,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3267,8 +3257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A877" workbookViewId="0">
-      <selection activeCell="A501" sqref="A501"/>
+    <sheetView tabSelected="1" topLeftCell="A901" workbookViewId="0">
+      <selection activeCell="E888" sqref="E888:E889"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35724,8 +35714,8 @@
   </sheetData>
   <autoFilter ref="A1:K927" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
